--- a/data/mean_GCP_recon_GNSS.xlsx
+++ b/data/mean_GCP_recon_GNSS.xlsx
@@ -383,10 +383,14 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -407,7 +411,7 @@
         <v>205.80809911092121</v>
       </c>
       <c r="C2">
-        <v>205.83700000000002</v>
+        <v>205.827</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -418,7 +422,7 @@
         <v>206.24024062860209</v>
       </c>
       <c r="C3">
-        <v>206.26300000000001</v>
+        <v>206.25299999999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -429,7 +433,7 @@
         <v>207.04266407450689</v>
       </c>
       <c r="C4">
-        <v>207.09700000000001</v>
+        <v>207.05699999999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -440,7 +444,7 @@
         <v>206.95427191062049</v>
       </c>
       <c r="C5">
-        <v>206.99</v>
+        <v>206.96</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -451,7 +455,7 @@
         <v>207.70555865178341</v>
       </c>
       <c r="C6">
-        <v>207.73700000000002</v>
+        <v>207.727</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -462,7 +466,7 @@
         <v>207.24602896268249</v>
       </c>
       <c r="C7">
-        <v>207.28900000000002</v>
+        <v>207.249</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -473,7 +477,7 @@
         <v>208.08578591268571</v>
       </c>
       <c r="C8">
-        <v>208.12100000000001</v>
+        <v>208.09100000000001</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -484,7 +488,7 @@
         <v>209.01058709816849</v>
       </c>
       <c r="C9">
-        <v>209.04400000000001</v>
+        <v>209.01400000000001</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -495,7 +499,7 @@
         <v>208.82193243308151</v>
       </c>
       <c r="C10">
-        <v>208.86800000000002</v>
+        <v>208.84800000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -506,7 +510,7 @@
         <v>209.1706610507652</v>
       </c>
       <c r="C11">
-        <v>209.21</v>
+        <v>209.19800000000001</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -517,7 +521,7 @@
         <v>209.91538000888511</v>
       </c>
       <c r="C12">
-        <v>209.99</v>
+        <v>209.934</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -528,7 +532,7 @@
         <v>209.8647623531154</v>
       </c>
       <c r="C13">
-        <v>209.91500000000002</v>
+        <v>209.87899999999999</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -539,7 +543,7 @@
         <v>211.2679445860816</v>
       </c>
       <c r="C14">
-        <v>211.30200000000002</v>
+        <v>211.274</v>
       </c>
     </row>
   </sheetData>
